--- a/docs/Notenrechner.xlsx
+++ b/docs/Notenrechner.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bibliotheken\Documents\DaRandomMess\Development\Java\Notenrechner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gian\AndroidStudioProjects\GradeStat\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D1E7C4-31E5-4B9C-8143-7E87B434AC75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D90D87D-EF81-4F30-B8EA-8016BCA5F577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>Tag</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Textüberprüfung</t>
+  </si>
+  <si>
+    <t>Textüberarbeitung</t>
   </si>
 </sst>
 </file>
@@ -400,10 +403,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Notenrechner!$A$2:$A$46</c:f>
+              <c:f>Notenrechner!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>43658</c:v>
                 </c:pt>
@@ -517,16 +520,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>43764</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Notenrechner!$D$2:$D$46</c:f>
+              <c:f>Notenrechner!$D$2:$D$47</c:f>
               <c:numCache>
                 <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0.125</c:v>
                 </c:pt>
@@ -640,6 +646,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.16666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.16666666666666674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -707,13 +716,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Notenrechner!$A$2:$A$46</c15:sqref>
+                          <c15:sqref>Notenrechner!$A$2:$A$47</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="45"/>
+                      <c:ptCount val="46"/>
                       <c:pt idx="0">
                         <c:v>43658</c:v>
                       </c:pt>
@@ -827,6 +836,9 @@
                       </c:pt>
                       <c:pt idx="44">
                         <c:v>43764</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>43788</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -997,13 +1009,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Notenrechner!$A$2:$A$46</c15:sqref>
+                          <c15:sqref>Notenrechner!$A$2:$A$47</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="45"/>
+                      <c:ptCount val="46"/>
                       <c:pt idx="0">
                         <c:v>43658</c:v>
                       </c:pt>
@@ -1117,13 +1129,16 @@
                       </c:pt>
                       <c:pt idx="44">
                         <c:v>43764</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>43788</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Notenrechner!$B$2:$B$46</c15:sqref>
@@ -1272,7 +1287,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-51DB-40D9-A3F1-8486BF7B67AB}"/>
                   </c:ext>
@@ -1308,13 +1323,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Notenrechner!$A$2:$A$46</c15:sqref>
+                          <c15:sqref>Notenrechner!$A$2:$A$47</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="45"/>
+                      <c:ptCount val="46"/>
                       <c:pt idx="0">
                         <c:v>43658</c:v>
                       </c:pt>
@@ -1428,13 +1443,16 @@
                       </c:pt>
                       <c:pt idx="44">
                         <c:v>43764</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>43788</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Notenrechner!$C$2:$C$46</c15:sqref>
@@ -1583,7 +1601,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-51DB-40D9-A3F1-8486BF7B67AB}"/>
                   </c:ext>
@@ -2574,7 +2592,7 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3382,10 +3400,21 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
+      <c r="A47" s="10">
+        <v>43788</v>
+      </c>
+      <c r="B47" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D47" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3433,7 +3462,7 @@
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D56" s="8">
         <f>SUM(D2:D53)</f>
-        <v>7.7708333333333339</v>
+        <v>7.9375000000000009</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>19</v>
